--- a/doc/하이캐피탈 펌뱅킹 가상계좌변경 업무 담당자별 진행 사항_v1.1.xlsx
+++ b/doc/하이캐피탈 펌뱅킹 가상계좌변경 업무 담당자별 진행 사항_v1.1.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="18135" windowHeight="14460"/>
+    <workbookView xWindow="600" yWindow="45" windowWidth="18135" windowHeight="14460" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="승인관리" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="변경관리" sheetId="6" r:id="rId1"/>
+    <sheet name="업무 진행사항" sheetId="3" r:id="rId2"/>
+    <sheet name="승인관리" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$F$4:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'업무 진행사항'!$F$4:$F$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="126">
   <si>
     <t>CBCBC_SMSTOTDLYR</t>
   </si>
@@ -48,9 +49,6 @@
     <t>com.cabis.sc.b.cp.bb.CallService.java</t>
   </si>
   <si>
-    <t>com.cabis.sc.e.ac.pa.PayFixSC.java</t>
-  </si>
-  <si>
     <t>com.cabis.sc.b.cp.ab.AcntChkGramCC.java</t>
   </si>
   <si>
@@ -411,12 +409,6 @@
   </si>
   <si>
     <t>기존 업무 그대로 사용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹취에 사용하는 문장임
-'신한은행'으로 적혀있음
-각 입금은행에 따른 은행명 출력 필요</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -571,13 +563,6 @@
   </si>
   <si>
     <t>입금 계좌 은행 코드 선택하도록 수정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 조치
-AUSER.ALOT_MO_ACNT_BASE
- - bsn_DIV_CD '10' 회계지급계좌
- BANK_CD, MO_ACNT_NO 를 읽어서 처리</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -768,6 +753,123 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>분석 완료
+수정사항없음</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011-12-12</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 조치
+인뱅킹으로 처리하므로 기존과 같이 처리[재경팀장님과 협의]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011-12-16</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.cabis.sc.e.ac.pa.PayFixSC.java</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>녹취에 사용하는 문장임
+'신한은행'으로 적혀있음
+각 입금은행에 따른 은행명 출력 필요
+승인관리화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 지정한 은행을 참고하여
+은행명을 지정해야 한다</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경날짜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경사항</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수한</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 작성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수한</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 필드 추가 / 완료일 필드 추가</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구입금-112 변경사항 없음 - 기존 신한은행 사용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -780,8 +882,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 5, 6, 8</t>
-    </r>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업-100 팝업 화면 구두계약에서 문장 중 '신한은행'은 승인관리화면에서 참고하여
+             각 은행에 맞는 은행명을 표시해야한다</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 5, 6, 8 참고</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +1078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,9 +1117,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1067,46 +1175,94 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1559,16 +1715,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="56" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="56" customWidth="1"/>
+    <col min="5" max="5" width="57.75" style="56" customWidth="1"/>
+    <col min="6" max="6" width="14" style="56" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="58">
+        <v>40886</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="58">
+        <v>40886</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="59"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="58">
+        <v>40889</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" spans="2:6" ht="24">
+      <c r="B6" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="58">
+        <v>40889</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="59"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1579,224 +1942,227 @@
     <col min="4" max="4" width="25.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2" style="3" customWidth="1"/>
     <col min="8" max="8" width="32.875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="13.375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="17" customFormat="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" s="16" customFormat="1">
+      <c r="A3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="36">
-      <c r="A4" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
+      <c r="J3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60">
+      <c r="A4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="D4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34" t="s">
-        <v>35</v>
+      <c r="D5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="42" t="s">
+      <c r="D7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="J7" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>91</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="13"/>
       <c r="F8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="36">
-      <c r="A9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27" t="s">
+      <c r="D9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>55</v>
+      <c r="K9" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1806,29 +2172,29 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>93</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1846,324 +2212,328 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>94</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>95</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>85</v>
+        <v>21</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="28"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="50" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>97</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="E17" s="13"/>
       <c r="F17" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="60">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="42.75" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>99</v>
+      <c r="A21" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="62"/>
       <c r="F21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18"/>
+      <c r="A23" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>105</v>
+        <v>64</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="K25" s="43" t="s">
-        <v>55</v>
+      <c r="A25" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="A27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10"/>
-      <c r="B28" s="41" t="s">
-        <v>100</v>
+      <c r="B28" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="2"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -2173,74 +2543,74 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:11">
       <c r="I32" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="9:10">
       <c r="I33" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="9:10">
       <c r="I34" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="9:10">
       <c r="I35" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="9:10">
       <c r="I36" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="9:10">
       <c r="I37" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J37" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2264,7 +2634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -2274,27 +2644,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="9" style="22"/>
+    <col min="1" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="21" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="22" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
